--- a/data/trans_bre/P31_4_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P31_4_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +545,19 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Brecha de género relativa</t>
-        </is>
-      </c>
+      <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Brecha de género relativa</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -590,6 +632,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2,42%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,09%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1,52%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,99%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -642,32 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 6,55</t>
+          <t>0,05; 6,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 4,9</t>
+          <t>-2,26; 2,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 5,47</t>
+          <t>-0,31; 3,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,7; 7,08</t>
+          <t>-0,38; 6,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 5,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 5,76</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 6,64</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-2,27; 2,57</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-0,31; 4,12</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-0,39; 6,67</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -684,32 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,64</t>
+          <t>7,06</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,07</t>
+          <t>9,27</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>9,41</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7,91%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3,85%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10,64%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>10,67%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -722,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,45; 10,3</t>
+          <t>3,15; 11,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,82; 6,55</t>
+          <t>1,13; 6,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,64; 13,09</t>
+          <t>5,79; 13,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,74; 11,9</t>
+          <t>5,36; 14,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,81; 7,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,32; 15,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3,41; 13,37</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1,22; 7,15</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>6,47; 15,67</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>6,07; 17,05</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -764,32 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,37</t>
+          <t>7,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,33</t>
+          <t>9,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,45</t>
+          <t>12,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>9,03</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7,82%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>10,28%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>14,81%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>10,4%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -802,39 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,74; 10,04</t>
+          <t>3,01; 11,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,23; 12,46</t>
+          <t>5,93; 14,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,95; 16,36</t>
+          <t>8,83; 16,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,93; 11,36</t>
+          <t>4,12; 15,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,73; 14,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,1; 20,07</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3,21; 13,55</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6,48; 16,7</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>9,98; 20,82</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4,59; 18,51</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,89</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>6,41</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,75</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>9,17</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6,06%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6,93%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>10,28%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,44 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,78; 7,94</t>
+          <t>3,33; 8,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,47; 6,76</t>
+          <t>3,52; 10,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,46; 10,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,06; 8,89</t>
+          <t>5,11; 16,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,66; 7,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,14; 12,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3,52; 9,63</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3,72; 11,57</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>5,52; 19,49</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5,98</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,12</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8,78</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8,34</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6,53%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,5%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9,92%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>9,33%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4,17; 7,96</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3,55; 7,02</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6,76; 11,23</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6,13; 11,28</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4,48; 8,87</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3,78; 7,68</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>7,49; 13,02</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>6,68; 12,92</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P31_4_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P31_4_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,35</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,48</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>1,94</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>2,42%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-0,09%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>1,52%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>1,99%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>2.411340695140263</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.06461466013257811</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.836101536556378</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>2.004949421841185</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>0.02483979853499143</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.0006591168993292579</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.01893245710198175</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.02054528185292464</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 6,19</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,26; 2,49</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,31; 3,92</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,38; 6,24</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 6,64</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-2,27; 2,57</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-0,31; 4,12</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-0,39; 6,67</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.05579160274836942</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.489789479711884</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.06387410347445477</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.3140766313243227</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>0.0004585054490449017</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.02502864308914347</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.0006086058348506766</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.003168552942265161</v>
+      </c>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6.518000280841344</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.683694272401639</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.48506191723163</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>6.527931422522343</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>0.07027719642384238</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.02801551857568175</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.04739901683591136</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.06995825892205292</v>
+      </c>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>7,06</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,61</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>9,27</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>9,41</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>7,91%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>3,85%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>10,64%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>10,67%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>3,15; 11,44</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,13; 6,53</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>5,79; 13,08</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>5,36; 14,26</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>3,41; 13,37</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>1,22; 7,15</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>6,47; 15,67</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>6,07; 17,05</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>6.696267666420585</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>3.566702175284575</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>9.452560467192528</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>9.369939316902443</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>0.07516382477043779</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.03806543678364739</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.1088166791395895</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.106223561759996</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>7,05</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>9,16</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>12,57</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>9,03</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>7,82%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>10,28%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>14,81%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>10,4%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>2.604408581798392</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.8957320378858359</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>5.952796464866773</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>5.591556623210339</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>0.02839654898272214</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.009325651782303894</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.06644649356270099</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.06146974549967159</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>3,01; 11,65</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>5,93; 14,18</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>8,83; 16,82</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>4,12; 15,1</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>3,21; 13,55</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>6,48; 16,7</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>9,98; 20,82</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>4,59; 18,51</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>11.03322663117696</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>6.536114817478603</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>13.33922994738178</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>14.4055519331203</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>0.1295974751266763</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.07220682985926376</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.1589212447498511</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.1731268066686872</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>5,61</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>6,41</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>9,17</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>6,06%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>6,93%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>10,28%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>8.554405002370002</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>9.093605377800994</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>12.51161728584869</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>9.338288110932425</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.09652769339875561</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1021853640537076</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.1473799017557734</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.1078927282746636</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>3,33; 8,66</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>3,52; 10,19</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>5,11; 16,08</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>3,52; 9,63</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>3,72; 11,57</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>5,52; 19,49</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>3.768333786113197</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>5.725052415579029</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>8.783659522050916</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>4.277946843524174</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>0.04056828791273707</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.0619114894802713</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>0.09966012614221513</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>0.0477506423391352</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>14.94393174380116</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>14.23506477726217</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>16.71965228106099</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>15.29736996642176</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.1806170923668069</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.1687278319130515</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.206129609257665</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.192741965835162</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>5,98</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>5,12</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>8,78</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>8,34</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>6,53%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>5,5%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>9,92%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>9,33%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>4,17; 7,96</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>3,55; 7,02</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>6,76; 11,23</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>6,13; 11,28</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>4,48; 8,87</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>3,78; 7,68</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>7,49; 13,02</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>6,68; 12,92</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>6.743858007938663</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>4.690140101220075</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>8.927950017254084</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>8.134403454292638</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>0.07474053668208218</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.05042813417393694</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.1010205889360472</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.0910093646120734</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>4.185882058915955</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>2.875166931852216</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>6.837157106143284</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>5.265792451722923</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>0.04561263496698175</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.03104765081827713</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.07562269041409467</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.05720033951795343</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>10.21059405340588</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.032710499004834</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>11.44070494581106</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>11.24513085061775</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>0.1166642560937111</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.07780073286574551</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.1327889933301703</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.1296845851101399</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
